--- a/560-modify/doc/features.xlsx
+++ b/560-modify/doc/features.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="24675" windowHeight="12045"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>主窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,24 +64,33 @@
   <si>
     <t>发布历史记录管理对话框，列表，删除，修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>三个tab，不同搜索条件输入方式</t>
+  </si>
+  <si>
+    <t>支持选择多个地区作为搜索条件</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -115,15 +124,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -197,6 +211,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,6 +246,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,16 +422,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="76.125" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -480,16 +496,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -500,12 +531,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -513,12 +544,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
